--- a/data/trans_orig/P6513-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD81002A-2FBF-4844-B319-4423AD3EA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D474B668-1E5D-4A47-B48E-33CD3D77C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98A80664-29BD-4C61-A6FD-A7A25DDB9003}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8904FBC-A03C-4560-BAA9-5D91E7972C21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>32,22%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>27,83%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,634 +164,631 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>6,96%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>32,4%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1206,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1981FD17-2357-4C85-B500-98AED37B1662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B3005A-6F52-4BD5-BC11-6F6F0D31D504}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1719,13 +1716,13 @@
         <v>257630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2098,13 @@
         <v>76027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -2116,13 +2113,13 @@
         <v>50514</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -2131,13 +2128,13 @@
         <v>126541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2149,13 @@
         <v>156006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -2167,13 +2164,13 @@
         <v>60836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>204</v>
@@ -2182,13 +2179,13 @@
         <v>216843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2200,13 @@
         <v>130146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -2218,13 +2215,13 @@
         <v>38116</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -2233,13 +2230,13 @@
         <v>168261</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2251,13 @@
         <v>75081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2269,13 +2266,13 @@
         <v>20267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -2284,13 +2281,13 @@
         <v>95348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2343,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2358,10 +2355,10 @@
         <v>25957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>162</v>
@@ -2747,13 +2744,13 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2801,7 @@
         <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2869,13 @@
         <v>370194</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -2887,13 +2884,13 @@
         <v>249287</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>592</v>
@@ -2902,7 +2899,7 @@
         <v>619480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>223</v>
@@ -2977,10 +2974,10 @@
         <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>235</v>
@@ -2989,13 +2986,13 @@
         <v>246908</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>788</v>
@@ -3004,13 +3001,13 @@
         <v>824091</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3022,13 @@
         <v>291137</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -3040,13 +3037,13 @@
         <v>109000</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>383</v>
@@ -3055,13 +3052,13 @@
         <v>400136</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3114,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D474B668-1E5D-4A47-B48E-33CD3D77C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64C76D9-2DCB-4D94-B4EB-95E8694FB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8904FBC-A03C-4560-BAA9-5D91E7972C21}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D744CEC-9B29-4F23-9543-045B0B800D84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>17,69%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>31,88%</t>
@@ -83,19 +83,19 @@
     <t>21,85%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>32,22%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>27,83%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,631 +164,622 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>32,4%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>28,12%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>26,4%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>8,71%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1203,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B3005A-6F52-4BD5-BC11-6F6F0D31D504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657B63-A8F8-4ED4-9BA3-9883136C5170}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,13 +1626,13 @@
         <v>193974</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -1650,13 +1641,13 @@
         <v>135433</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -1665,13 +1656,13 @@
         <v>329407</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1677,13 @@
         <v>172780</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>80</v>
@@ -1701,13 +1692,13 @@
         <v>84850</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -1716,13 +1707,13 @@
         <v>257630</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +1985,13 @@
         <v>89675</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2009,13 +2000,13 @@
         <v>27394</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -2024,13 +2015,13 @@
         <v>117069</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2077,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2089,13 @@
         <v>76027</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -2113,13 +2104,13 @@
         <v>50514</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -2128,13 +2119,13 @@
         <v>126541</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2140,13 @@
         <v>156006</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -2164,13 +2155,13 @@
         <v>60836</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>204</v>
@@ -2179,13 +2170,13 @@
         <v>216843</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2191,13 @@
         <v>130146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -2215,13 +2206,13 @@
         <v>38116</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -2230,13 +2221,13 @@
         <v>168261</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2242,13 @@
         <v>75081</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2266,13 +2257,13 @@
         <v>20267</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -2281,13 +2272,13 @@
         <v>95348</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2334,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2346,13 @@
         <v>25957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2370,13 +2361,13 @@
         <v>17124</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -2385,13 +2376,13 @@
         <v>43081</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2397,13 @@
         <v>65686</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -2421,13 +2412,13 @@
         <v>26351</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -2436,13 +2427,13 @@
         <v>92036</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2448,13 @@
         <v>52734</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2472,13 +2463,13 @@
         <v>16046</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>68</v>
@@ -2487,13 +2478,13 @@
         <v>68780</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2499,13 @@
         <v>18991</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2523,13 +2514,13 @@
         <v>4763</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="M27" s="7">
         <v>23</v>
@@ -2538,13 +2529,13 @@
         <v>23754</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2591,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2612,13 +2603,13 @@
         <v>2471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2627,10 +2618,10 @@
         <v>982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -2642,13 +2633,13 @@
         <v>3452</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2678,13 +2669,13 @@
         <v>2639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2693,13 +2684,13 @@
         <v>2639</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2705,13 @@
         <v>2567</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2729,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2744,13 +2735,13 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2780,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2795,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2860,13 @@
         <v>370194</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -2884,13 +2875,13 @@
         <v>249287</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>592</v>
@@ -2899,13 +2890,13 @@
         <v>619480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2911,13 @@
         <v>665721</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H35" s="7">
         <v>403</v>
@@ -2935,13 +2926,13 @@
         <v>421043</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>1042</v>
@@ -2950,13 +2941,13 @@
         <v>1086764</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2962,13 @@
         <v>577184</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>235</v>
@@ -2986,13 +2977,13 @@
         <v>246908</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>788</v>
@@ -3001,13 +2992,13 @@
         <v>824091</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3013,13 @@
         <v>291137</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -3037,13 +3028,13 @@
         <v>109000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="M37" s="7">
         <v>383</v>
@@ -3052,13 +3043,13 @@
         <v>400136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3105,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64C76D9-2DCB-4D94-B4EB-95E8694FB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5374EA-8C7B-4747-A4DA-210A705C107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D744CEC-9B29-4F23-9543-045B0B800D84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B11CCFB-E50F-4379-8969-18313C42ECBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,712 +74,724 @@
     <t>24,32%</t>
   </si>
   <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,71%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80657B63-A8F8-4ED4-9BA3-9883136C5170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F59F6A5-3168-4CC3-9ABC-DAC1AC62F8C3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,13 +1638,13 @@
         <v>193974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -1641,13 +1653,13 @@
         <v>135433</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -1656,13 +1668,13 @@
         <v>329407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1689,13 @@
         <v>172780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>80</v>
@@ -1692,13 +1704,13 @@
         <v>84850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>247</v>
@@ -1707,7 +1719,7 @@
         <v>257630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>76</v>
@@ -1985,13 +1997,13 @@
         <v>89675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2000,13 +2012,13 @@
         <v>27394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -2015,13 +2027,13 @@
         <v>117069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,7 +2089,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2089,7 +2101,7 @@
         <v>76027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>125</v>
@@ -2197,7 +2209,7 @@
         <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -2206,13 +2218,13 @@
         <v>38116</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -2221,13 +2233,13 @@
         <v>168261</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2254,13 @@
         <v>75081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2257,13 +2269,13 @@
         <v>20267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -2272,13 +2284,13 @@
         <v>95348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2346,13 +2358,13 @@
         <v>25957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -2361,13 +2373,13 @@
         <v>17124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -2376,13 +2388,13 @@
         <v>43081</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2409,13 @@
         <v>65686</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -2412,13 +2424,13 @@
         <v>26351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -2427,13 +2439,13 @@
         <v>92036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2460,13 @@
         <v>52734</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2463,13 +2475,13 @@
         <v>16046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>68</v>
@@ -2478,13 +2490,13 @@
         <v>68780</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2511,13 @@
         <v>18991</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2514,13 +2526,13 @@
         <v>4763</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>23</v>
@@ -2529,13 +2541,13 @@
         <v>23754</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2603,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2615,13 @@
         <v>2471</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2618,10 +2630,10 @@
         <v>982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>199</v>
@@ -2633,13 +2645,13 @@
         <v>3452</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2669,13 +2681,13 @@
         <v>2639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2684,13 +2696,13 @@
         <v>2639</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2717,13 @@
         <v>2567</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2720,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2735,10 +2747,10 @@
         <v>2568</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>214</v>
@@ -2756,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2771,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2786,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>215</v>
@@ -2866,7 +2878,7 @@
         <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>238</v>
@@ -2875,13 +2887,13 @@
         <v>249287</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>592</v>
@@ -2890,13 +2902,13 @@
         <v>619480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2923,13 @@
         <v>665721</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
         <v>403</v>
@@ -2926,13 +2938,13 @@
         <v>421043</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>1042</v>
@@ -2941,13 +2953,13 @@
         <v>1086764</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2974,13 @@
         <v>577184</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>235</v>
@@ -2977,13 +2989,13 @@
         <v>246908</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>788</v>
@@ -2992,13 +3004,13 @@
         <v>824091</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3025,13 @@
         <v>291137</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>106</v>
@@ -3028,13 +3040,13 @@
         <v>109000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>383</v>
@@ -3043,13 +3055,13 @@
         <v>400136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3117,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6513-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6513-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5374EA-8C7B-4747-A4DA-210A705C107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C85700F-54AB-4A01-BC89-7AD92654C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B11CCFB-E50F-4379-8969-18313C42ECBC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{37DFCEB5-16E4-4809-9869-F8493470BD71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="254">
   <si>
     <t>Población según trabajar a un rítmo muy rápido durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>19,45%</t>
@@ -299,7 +299,7 @@
     <t>15,82%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>20,25%</t>
@@ -410,7 +410,7 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>13,89%</t>
@@ -515,7 +515,7 @@
     <t>19,06%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>15,89%</t>
@@ -626,64 +626,67 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>19,44%</t>
@@ -1206,8 +1209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F59F6A5-3168-4CC3-9ABC-DAC1AC62F8C3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F06AB-1619-43CE-BC1D-368F9C5E27E4}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2609,10 +2612,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>2471</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>197</v>
@@ -2633,25 +2636,25 @@
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>3452</v>
+        <v>982</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2681,13 +2684,13 @@
         <v>2639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2696,13 +2699,13 @@
         <v>2639</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,16 +2717,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2732,28 +2735,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2783,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2798,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2843,10 +2846,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2860,55 +2863,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>370194</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>238</v>
-      </c>
-      <c r="I34" s="7">
-        <v>249287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
-        <v>592</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>619480</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,49 +2918,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>665721</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
-        <v>403</v>
-      </c>
-      <c r="I35" s="7">
-        <v>421043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
-        <v>1042</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>1086764</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,49 +2967,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>577184</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
-        <v>235</v>
-      </c>
-      <c r="I36" s="7">
-        <v>246908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>824091</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,49 +3016,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>291137</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
-        <v>106</v>
-      </c>
-      <c r="I37" s="7">
-        <v>109000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>400136</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,63 +3065,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>354</v>
+      </c>
+      <c r="D39" s="7">
+        <v>370194</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="7">
+        <v>238</v>
+      </c>
+      <c r="I39" s="7">
+        <v>249287</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" s="7">
+        <v>592</v>
+      </c>
+      <c r="N39" s="7">
+        <v>619480</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>639</v>
+      </c>
+      <c r="D40" s="7">
+        <v>665721</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="7">
+        <v>403</v>
+      </c>
+      <c r="I40" s="7">
+        <v>421043</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1042</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1086764</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>553</v>
+      </c>
+      <c r="D41" s="7">
+        <v>577184</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="7">
+        <v>235</v>
+      </c>
+      <c r="I41" s="7">
+        <v>246908</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M41" s="7">
+        <v>788</v>
+      </c>
+      <c r="N41" s="7">
+        <v>824091</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>277</v>
+      </c>
+      <c r="D42" s="7">
+        <v>291137</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="7">
+        <v>106</v>
+      </c>
+      <c r="I42" s="7">
+        <v>109000</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M42" s="7">
+        <v>383</v>
+      </c>
+      <c r="N42" s="7">
+        <v>400136</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1823</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1904235</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>982</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1026237</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2805</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2930472</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>252</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
